--- a/results/mp/deberta/corona/confidence/42/stop-words-0.1/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-0.1/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="1468">
   <si>
     <t>anchor score</t>
   </si>
@@ -478,790 +478,790 @@
     <t>profits</t>
   </si>
   <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>hits</t>
+  </si>
+  <si>
+    <t>lady</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>warn</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>suppliers</t>
+  </si>
+  <si>
+    <t>fed</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>worldwide</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>dairy</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>communities</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>firms</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>ag</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>ceo</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>told</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>yesterday</t>
-  </si>
-  <si>
-    <t>hits</t>
-  </si>
-  <si>
-    <t>lady</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>warn</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>suppliers</t>
-  </si>
-  <si>
-    <t>fed</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>damn</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>europe</t>
-  </si>
-  <si>
-    <t>set</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>assure</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>donation</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>worldwide</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>dairy</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>communities</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>firms</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>ag</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>ceo</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>nation</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>told</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>worker</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>goods</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>supporting</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>appreciate</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>laugh</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>assure</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>natural</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>donation</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>episode</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>protected</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>safety</t>
   </si>
   <si>
     <t>partners</t>
@@ -4783,10 +4783,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -5015,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5065,7 +5065,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -5115,7 +5115,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -5165,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -5315,7 +5315,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -5365,7 +5365,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -5415,7 +5415,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -5665,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K19">
         <v>0.8947368421052632</v>
@@ -5765,7 +5765,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K21">
         <v>0.8888888888888888</v>
@@ -5815,7 +5815,7 @@
         <v>150</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K22">
         <v>0.8888888888888888</v>
@@ -5915,7 +5915,7 @@
         <v>5</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K24">
         <v>0.875</v>
@@ -5965,7 +5965,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K25">
         <v>0.875</v>
@@ -6015,7 +6015,7 @@
         <v>4</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K26">
         <v>0.8571428571428571</v>
@@ -6115,7 +6115,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K28">
         <v>0.8503937007874016</v>
@@ -6165,7 +6165,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K29">
         <v>0.8333333333333334</v>
@@ -6215,7 +6215,7 @@
         <v>7</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K30">
         <v>0.8333333333333334</v>
@@ -6265,7 +6265,7 @@
         <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K31">
         <v>0.8333333333333334</v>
@@ -6315,7 +6315,7 @@
         <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K32">
         <v>0.8333333333333334</v>
@@ -6365,7 +6365,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K33">
         <v>0.8181818181818182</v>
@@ -6415,7 +6415,7 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K34">
         <v>0.8181818181818182</v>
@@ -6465,7 +6465,7 @@
         <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K35">
         <v>0.8181818181818182</v>
@@ -6615,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K38">
         <v>0.8</v>
@@ -6715,7 +6715,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K40">
         <v>0.7692307692307693</v>
@@ -6765,7 +6765,7 @@
         <v>2</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K41">
         <v>0.7692307692307693</v>
@@ -6815,7 +6815,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K42">
         <v>0.7692307692307693</v>
@@ -6965,7 +6965,7 @@
         <v>2</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K45">
         <v>0.7579617834394905</v>
@@ -7065,7 +7065,7 @@
         <v>5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K47">
         <v>0.75</v>
@@ -7115,7 +7115,7 @@
         <v>5</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K48">
         <v>0.75</v>
@@ -7165,7 +7165,7 @@
         <v>14</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K49">
         <v>0.75</v>
@@ -7215,7 +7215,7 @@
         <v>14</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K50">
         <v>0.75</v>
@@ -7265,7 +7265,7 @@
         <v>18</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K51">
         <v>0.746031746031746</v>
@@ -7315,7 +7315,7 @@
         <v>6</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K52">
         <v>0.7368421052631579</v>
@@ -7415,7 +7415,7 @@
         <v>6</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K54">
         <v>0.7272727272727273</v>
@@ -7565,7 +7565,7 @@
         <v>3</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K57">
         <v>0.7142857142857143</v>
@@ -7665,7 +7665,7 @@
         <v>6</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K59">
         <v>0.7</v>
@@ -7715,7 +7715,7 @@
         <v>10</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K60">
         <v>0.7</v>
@@ -7765,7 +7765,7 @@
         <v>15</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K61">
         <v>0.7</v>
@@ -7815,7 +7815,7 @@
         <v>20</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K62">
         <v>0.6785714285714286</v>
@@ -7965,7 +7965,7 @@
         <v>4</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K65">
         <v>0.6666666666666666</v>
@@ -8065,7 +8065,7 @@
         <v>4</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K67">
         <v>0.6666666666666666</v>
@@ -8115,7 +8115,7 @@
         <v>4</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K68">
         <v>0.6666666666666666</v>
@@ -8165,7 +8165,7 @@
         <v>4</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K69">
         <v>0.6666666666666666</v>
@@ -8265,7 +8265,7 @@
         <v>4</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K71">
         <v>0.6666666666666666</v>
@@ -8315,7 +8315,7 @@
         <v>4</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K72">
         <v>0.6666666666666666</v>
@@ -8365,7 +8365,7 @@
         <v>4</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K73">
         <v>0.6666666666666666</v>
@@ -8415,7 +8415,7 @@
         <v>4</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K74">
         <v>0.6666666666666666</v>
@@ -8465,28 +8465,28 @@
         <v>61</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>154</v>
+        <v>278</v>
       </c>
       <c r="K75">
-        <v>0.6536796536796536</v>
+        <v>0.6524822695035462</v>
       </c>
       <c r="L75">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="M75">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="N75">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O75">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -8515,28 +8515,28 @@
         <v>9</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>280</v>
+        <v>384</v>
       </c>
       <c r="K76">
-        <v>0.6524822695035462</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L76">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="M76">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="N76">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -8565,7 +8565,7 @@
         <v>5</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K77">
         <v>0.6363636363636364</v>
@@ -8615,16 +8615,16 @@
         <v>10</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K78">
-        <v>0.6363636363636364</v>
+        <v>0.6317991631799164</v>
       </c>
       <c r="L78">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="M78">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -8636,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -8665,7 +8665,7 @@
         <v>10</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K79">
         <v>0.6296296296296297</v>
@@ -8715,7 +8715,7 @@
         <v>5</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K80">
         <v>0.625</v>
@@ -8765,7 +8765,7 @@
         <v>5</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K81">
         <v>0.625</v>
@@ -8815,7 +8815,7 @@
         <v>5</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K82">
         <v>0.625</v>
@@ -8865,7 +8865,7 @@
         <v>5</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K83">
         <v>0.6153846153846154</v>
@@ -8965,7 +8965,7 @@
         <v>5</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K85">
         <v>0.6086956521739131</v>
@@ -9065,7 +9065,7 @@
         <v>5</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K87">
         <v>0.6</v>
@@ -9215,7 +9215,7 @@
         <v>22</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K90">
         <v>0.6</v>
@@ -9315,7 +9315,7 @@
         <v>11</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K92">
         <v>0.6</v>
@@ -9415,7 +9415,7 @@
         <v>17</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K94">
         <v>0.6</v>
@@ -9515,7 +9515,7 @@
         <v>6</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K96">
         <v>0.6</v>
@@ -9565,7 +9565,7 @@
         <v>6</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K97">
         <v>0.5833333333333334</v>
@@ -9615,7 +9615,7 @@
         <v>6</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K98">
         <v>0.5714285714285714</v>
@@ -9665,7 +9665,7 @@
         <v>6</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K99">
         <v>0.5714285714285714</v>
@@ -9715,7 +9715,7 @@
         <v>6</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K100">
         <v>0.5714285714285714</v>
@@ -9765,7 +9765,7 @@
         <v>6</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K101">
         <v>0.5714285714285714</v>
@@ -9815,7 +9815,7 @@
         <v>6</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K102">
         <v>0.5714285714285714</v>
@@ -9865,7 +9865,7 @@
         <v>6</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K103">
         <v>0.5714285714285714</v>
@@ -9915,7 +9915,7 @@
         <v>6</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K104">
         <v>0.5714285714285714</v>
@@ -9965,7 +9965,7 @@
         <v>6</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K105">
         <v>0.5714285714285714</v>
@@ -10015,7 +10015,7 @@
         <v>12</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K106">
         <v>0.5652173913043478</v>
@@ -10065,7 +10065,7 @@
         <v>19</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K107">
         <v>0.5625</v>
@@ -10115,7 +10115,7 @@
         <v>19</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K108">
         <v>0.5555555555555556</v>
@@ -10165,7 +10165,7 @@
         <v>13</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K109">
         <v>0.5555555555555556</v>
@@ -10215,7 +10215,7 @@
         <v>13</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K110">
         <v>0.5531914893617021</v>
@@ -10265,7 +10265,7 @@
         <v>26</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K111">
         <v>0.5454545454545454</v>
@@ -10315,7 +10315,7 @@
         <v>27</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K112">
         <v>0.5454545454545454</v>
@@ -10365,7 +10365,7 @@
         <v>7</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K113">
         <v>0.5384615384615384</v>
@@ -10415,28 +10415,28 @@
         <v>14</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>188</v>
+        <v>414</v>
       </c>
       <c r="K114">
-        <v>0.5379939209726444</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L114">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="M114">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="N114">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O114">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>152</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -10465,28 +10465,28 @@
         <v>7</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>415</v>
+        <v>167</v>
       </c>
       <c r="K115">
-        <v>0.5294117647058824</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L115">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="M115">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O115">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q115">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -10515,28 +10515,28 @@
         <v>7</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>168</v>
+        <v>415</v>
       </c>
       <c r="K116">
-        <v>0.5217391304347826</v>
+        <v>0.5205882352941177</v>
       </c>
       <c r="L116">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="M116">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="N116">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O116">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>11</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -11265,7 +11265,7 @@
         <v>8</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K131">
         <v>0.4761904761904762</v>
@@ -11415,7 +11415,7 @@
         <v>16</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K134">
         <v>0.46875</v>
@@ -11465,7 +11465,7 @@
         <v>8</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K135">
         <v>0.4666666666666667</v>
@@ -11665,7 +11665,7 @@
         <v>9</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K139">
         <v>0.4558823529411765</v>
@@ -11865,7 +11865,7 @@
         <v>9</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K143">
         <v>0.4444444444444444</v>
@@ -12065,7 +12065,7 @@
         <v>10</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K147">
         <v>0.4413793103448276</v>
@@ -12147,22 +12147,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C149">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="E149">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F149">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>438</v>
@@ -12200,16 +12200,16 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
         <v>10</v>
@@ -12250,16 +12250,16 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
         <v>10</v>
@@ -12300,13 +12300,13 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E152">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F152">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
@@ -12350,16 +12350,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
         <v>10</v>
@@ -12444,13 +12444,13 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.09090909090909091</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>442</v>
@@ -12494,13 +12494,13 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.08823529411764706</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -12512,7 +12512,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>443</v>
@@ -12550,16 +12550,16 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
         <v>11</v>
@@ -12600,13 +12600,13 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E158">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F158">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
@@ -12650,13 +12650,13 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E159">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F159">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
@@ -12700,13 +12700,13 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E160">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F160">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
@@ -12800,13 +12800,13 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E162">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F162">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
@@ -12850,16 +12850,16 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
         <v>11</v>
@@ -12900,16 +12900,16 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
         <v>11</v>
@@ -12950,16 +12950,16 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
         <v>11</v>
@@ -12994,13 +12994,13 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.08333333333333333</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -13012,7 +13012,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>453</v>
@@ -13044,7 +13044,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.08108108108108109</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C167">
         <v>3</v>
@@ -13062,7 +13062,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>454</v>
@@ -13094,28 +13094,28 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.07894736842105263</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K168">
         <v>0.4117647058823529</v>
@@ -13150,13 +13150,13 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E169">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F169">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
@@ -13200,13 +13200,13 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E170">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F170">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
@@ -13215,7 +13215,7 @@
         <v>12</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K170">
         <v>0.4102564102564102</v>
@@ -13250,22 +13250,22 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
         <v>12</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K171">
         <v>0.4083769633507853</v>
@@ -13300,16 +13300,16 @@
         <v>1</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172">
         <v>12</v>
@@ -13350,16 +13350,16 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
         <v>12</v>
@@ -13450,16 +13450,16 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
         <v>12</v>
@@ -13497,22 +13497,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>460</v>
@@ -13544,28 +13544,28 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.07692307692307693</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C177">
         <v>2</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K177">
         <v>0.4</v>
@@ -13594,25 +13594,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.07407407407407407</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D178">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="E178">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="F178">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>461</v>
@@ -13644,25 +13644,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.07317073170731707</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
         <v>3</v>
       </c>
-      <c r="D179">
-        <v>122</v>
-      </c>
       <c r="E179">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F179">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>462</v>
@@ -13700,13 +13700,13 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E180">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F180">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
@@ -13747,22 +13747,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E181">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="F181">
-        <v>0.5</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>60</v>
@@ -13794,25 +13794,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C182">
         <v>2</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E182">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="F182">
-        <v>0.6699999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>464</v>
@@ -13844,28 +13844,28 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.06748466257668712</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C183">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D183">
-        <v>188</v>
+        <v>6</v>
       </c>
       <c r="E183">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F183">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K183">
         <v>0.3902439024390244</v>
@@ -13897,22 +13897,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E184">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F184">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>465</v>
@@ -13947,22 +13947,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E185">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F185">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>466</v>
@@ -14000,16 +14000,16 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>14</v>
@@ -14050,13 +14050,13 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E187">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F187">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
@@ -14094,13 +14094,13 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -14112,7 +14112,7 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>88</v>
@@ -14144,25 +14144,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E189">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F189">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>469</v>
@@ -14194,13 +14194,13 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -14212,7 +14212,7 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>470</v>
@@ -14250,13 +14250,13 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="E191">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F191">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
@@ -14300,16 +14300,16 @@
         <v>1</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
         <v>15</v>
@@ -14350,13 +14350,13 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="E193">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F193">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
@@ -14400,13 +14400,13 @@
         <v>1</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E194">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F194">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
@@ -14450,13 +14450,13 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E195">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F195">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
@@ -14497,22 +14497,22 @@
         <v>0.0625</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E196">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>476</v>
@@ -14544,25 +14544,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E197">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F197">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>477</v>
@@ -14594,13 +14594,13 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -14612,7 +14612,7 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>478</v>
@@ -14644,25 +14644,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.06060606060606061</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E199">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F199">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>479</v>
@@ -14700,16 +14700,16 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
         <v>16</v>
@@ -14750,13 +14750,13 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E201">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F201">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
@@ -14800,13 +14800,13 @@
         <v>1</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E202">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F202">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
@@ -14850,13 +14850,13 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E203">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F203">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
@@ -14900,13 +14900,13 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E204">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F204">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
@@ -14950,13 +14950,13 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E205">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F205">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
@@ -14994,25 +14994,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E206">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>484</v>
@@ -15044,28 +15044,28 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E207">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F207">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K207">
         <v>0.36</v>
@@ -15100,16 +15100,16 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
         <v>17</v>
@@ -15144,25 +15144,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="E209">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="F209">
-        <v>0.14</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>486</v>
@@ -15194,25 +15194,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E210">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F210">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>487</v>
@@ -15247,22 +15247,22 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="E211">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F211">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>488</v>
@@ -15300,16 +15300,16 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E212">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
         <v>18</v>
@@ -15344,25 +15344,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E213">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F213">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>490</v>
@@ -15394,13 +15394,13 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -15412,7 +15412,7 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>491</v>
@@ -15444,25 +15444,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C215">
         <v>2</v>
       </c>
       <c r="D215">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E215">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>492</v>
@@ -15497,22 +15497,22 @@
         <v>0.05</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>493</v>
@@ -15547,22 +15547,22 @@
         <v>0.05</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>70</v>
@@ -15600,16 +15600,16 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="E218">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
         <v>19</v>
@@ -15644,25 +15644,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E219">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F219">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>495</v>
@@ -15694,25 +15694,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>76</v>
@@ -15744,25 +15744,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E221">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F221">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>496</v>
@@ -15800,13 +15800,13 @@
         <v>1</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E222">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F222">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
@@ -15850,13 +15850,13 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E223">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F223">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
@@ -15894,25 +15894,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.04545454545454546</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E224">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F224">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>499</v>
@@ -15944,25 +15944,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E225">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F225">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>500</v>
@@ -15994,25 +15994,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.04477611940298507</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E226">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F226">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>501</v>
@@ -16050,16 +16050,16 @@
         <v>1</v>
       </c>
       <c r="D227">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E227">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227">
         <v>22</v>
@@ -16100,16 +16100,16 @@
         <v>1</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
         <v>22</v>
@@ -16144,25 +16144,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>504</v>
@@ -16194,25 +16194,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>505</v>
@@ -16250,13 +16250,13 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E231">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F231">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
@@ -16294,25 +16294,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E232">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F232">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>507</v>
@@ -16344,25 +16344,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E233">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F233">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>508</v>
@@ -16394,25 +16394,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.04</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D234">
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>509</v>
@@ -16444,25 +16444,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E235">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F235">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>510</v>
@@ -16494,25 +16494,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.03896103896103896</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>73</v>
@@ -16544,25 +16544,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.03846153846153846</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E237">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F237">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>511</v>
@@ -16594,13 +16594,13 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.03846153846153846</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E238">
         <v>0.83</v>
@@ -16612,7 +16612,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>512</v>
@@ -16644,25 +16644,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.03773584905660377</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E239">
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
       <c r="F239">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>513</v>
@@ -16694,25 +16694,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.03773584905660377</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E240">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>514</v>
@@ -16747,22 +16747,22 @@
         <v>0.03703703703703703</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E241">
-        <v>0.88</v>
+        <v>0.33</v>
       </c>
       <c r="F241">
-        <v>0.12</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>515</v>
@@ -16794,25 +16794,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>516</v>
@@ -16844,25 +16844,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.03703703703703703</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E243">
-        <v>0.33</v>
+        <v>0.92</v>
       </c>
       <c r="F243">
-        <v>0.6699999999999999</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>517</v>
@@ -16894,25 +16894,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C244">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E244">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F244">
-        <v>0.1899999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>518</v>
@@ -16950,16 +16950,16 @@
         <v>1</v>
       </c>
       <c r="D245">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
         <v>29</v>
@@ -16994,25 +16994,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.03333333333333333</v>
+        <v>0.02994011976047904</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D246">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="E246">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F246">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>520</v>
@@ -17044,25 +17044,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.03333333333333333</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>521</v>
@@ -17094,25 +17094,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.02994011976047904</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C248">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="E248">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H248">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>113</v>
@@ -17144,25 +17144,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E249">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F249">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>522</v>
@@ -17194,25 +17194,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F250">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>523</v>
@@ -17250,13 +17250,13 @@
         <v>1</v>
       </c>
       <c r="D251">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E251">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F251">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
@@ -17300,16 +17300,16 @@
         <v>1</v>
       </c>
       <c r="D252">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E252">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H252">
         <v>34</v>
@@ -17344,25 +17344,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E253">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H253">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>7</v>
@@ -17394,7 +17394,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -17412,7 +17412,7 @@
         <v>0</v>
       </c>
       <c r="H254">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>526</v>
@@ -17465,7 +17465,7 @@
         <v>35</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K255">
         <v>0.3043478260869565</v>
@@ -17494,25 +17494,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>527</v>
@@ -17544,13 +17544,13 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.02777777777777778</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -17562,7 +17562,7 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>528</v>
@@ -17594,25 +17594,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.02702702702702703</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E258">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F258">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H258">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>529</v>
@@ -17644,25 +17644,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.02684563758389262</v>
+        <v>0.025</v>
       </c>
       <c r="C259">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D259">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>530</v>
@@ -17691,28 +17691,28 @@
     </row>
     <row r="260" spans="1:17">
       <c r="A260" s="1" t="s">
-        <v>265</v>
+        <v>6</v>
       </c>
       <c r="B260">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F260">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>531</v>
@@ -17741,28 +17741,28 @@
     </row>
     <row r="261" spans="1:17">
       <c r="A261" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B261">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E261">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F261">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>532</v>
@@ -17791,10 +17791,10 @@
     </row>
     <row r="262" spans="1:17">
       <c r="A262" s="1" t="s">
-        <v>6</v>
+        <v>266</v>
       </c>
       <c r="B262">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -17812,7 +17812,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>533</v>
@@ -17844,25 +17844,25 @@
         <v>267</v>
       </c>
       <c r="B263">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E263">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F263">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>534</v>
@@ -17894,25 +17894,25 @@
         <v>268</v>
       </c>
       <c r="B264">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E264">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F264">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H264">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>535</v>
@@ -17944,25 +17944,25 @@
         <v>269</v>
       </c>
       <c r="B265">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E265">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F265">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>536</v>
@@ -17994,25 +17994,25 @@
         <v>270</v>
       </c>
       <c r="B266">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H266">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>537</v>
@@ -18044,28 +18044,28 @@
         <v>271</v>
       </c>
       <c r="B267">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E267">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F267">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K267">
         <v>0.2926829268292683</v>
@@ -18094,25 +18094,25 @@
         <v>272</v>
       </c>
       <c r="B268">
-        <v>0.02272727272727273</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E268">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F268">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>538</v>
@@ -18144,25 +18144,25 @@
         <v>273</v>
       </c>
       <c r="B269">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E269">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F269">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>539</v>
@@ -18194,25 +18194,25 @@
         <v>274</v>
       </c>
       <c r="B270">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E270">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F270">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>540</v>
@@ -18244,25 +18244,25 @@
         <v>275</v>
       </c>
       <c r="B271">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D271">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E271">
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
       <c r="F271">
-        <v>0.09999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>541</v>
@@ -18294,25 +18294,25 @@
         <v>276</v>
       </c>
       <c r="B272">
-        <v>0.02127659574468085</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D272">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E272">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F272">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>542</v>
@@ -18344,25 +18344,25 @@
         <v>277</v>
       </c>
       <c r="B273">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C273">
         <v>2</v>
       </c>
       <c r="D273">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E273">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="F273">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>543</v>
@@ -18394,25 +18394,25 @@
         <v>278</v>
       </c>
       <c r="B274">
-        <v>0.02061855670103093</v>
+        <v>0.02</v>
       </c>
       <c r="C274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D274">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="E274">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="F274">
-        <v>0.12</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>544</v>
@@ -18444,25 +18444,25 @@
         <v>279</v>
       </c>
       <c r="B275">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D275">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E275">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="F275">
-        <v>0.15</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>545</v>
@@ -18494,25 +18494,25 @@
         <v>280</v>
       </c>
       <c r="B276">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D276">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="E276">
-        <v>0.99</v>
+        <v>0.78</v>
       </c>
       <c r="F276">
-        <v>0.01000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>546</v>
@@ -18544,25 +18544,25 @@
         <v>281</v>
       </c>
       <c r="B277">
-        <v>0.02</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E277">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="F277">
-        <v>0.09999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>547</v>
@@ -18594,25 +18594,25 @@
         <v>282</v>
       </c>
       <c r="B278">
-        <v>0.0196078431372549</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C278">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D278">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E278">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="F278">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>548</v>
@@ -18644,25 +18644,25 @@
         <v>283</v>
       </c>
       <c r="B279">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E279">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F279">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>549</v>
@@ -18694,25 +18694,25 @@
         <v>284</v>
       </c>
       <c r="B280">
-        <v>0.01851851851851852</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E280">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F280">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H280">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>550</v>
@@ -18744,25 +18744,25 @@
         <v>285</v>
       </c>
       <c r="B281">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E281">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F281">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>551</v>
@@ -18794,25 +18794,25 @@
         <v>286</v>
       </c>
       <c r="B282">
-        <v>0.01785714285714286</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F282">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H282">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>552</v>
@@ -18844,25 +18844,25 @@
         <v>287</v>
       </c>
       <c r="B283">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E283">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F283">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>553</v>
@@ -18894,25 +18894,25 @@
         <v>288</v>
       </c>
       <c r="B284">
-        <v>0.01739130434782609</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E284">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F284">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>153</v>
@@ -18950,16 +18950,16 @@
         <v>1</v>
       </c>
       <c r="D285">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E285">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F285">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H285">
         <v>57</v>
@@ -18994,25 +18994,25 @@
         <v>290</v>
       </c>
       <c r="B286">
-        <v>0.01724137931034483</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D286">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E286">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F286">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>90</v>
@@ -19044,25 +19044,25 @@
         <v>291</v>
       </c>
       <c r="B287">
-        <v>0.01724137931034483</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F287">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H287">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>555</v>
@@ -19094,25 +19094,25 @@
         <v>292</v>
       </c>
       <c r="B288">
-        <v>0.0170940170940171</v>
+        <v>0.015625</v>
       </c>
       <c r="C288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D288">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E288">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F288">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>556</v>
@@ -19144,25 +19144,25 @@
         <v>293</v>
       </c>
       <c r="B289">
-        <v>0.01666666666666667</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D289">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E289">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F289">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>557</v>
@@ -19194,25 +19194,25 @@
         <v>294</v>
       </c>
       <c r="B290">
-        <v>0.015625</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E290">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F290">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>558</v>
@@ -19244,25 +19244,25 @@
         <v>295</v>
       </c>
       <c r="B291">
-        <v>0.01538461538461539</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D291">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E291">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F291">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>559</v>
@@ -19294,25 +19294,25 @@
         <v>296</v>
       </c>
       <c r="B292">
-        <v>0.01538461538461539</v>
+        <v>0.0125</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E292">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F292">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H292">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>560</v>
@@ -19344,25 +19344,25 @@
         <v>297</v>
       </c>
       <c r="B293">
-        <v>0.01449275362318841</v>
+        <v>0.0125</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E293">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F293">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>561</v>
@@ -19394,25 +19394,25 @@
         <v>298</v>
       </c>
       <c r="B294">
-        <v>0.0125</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="E294">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F294">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H294">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>562</v>
@@ -19444,25 +19444,25 @@
         <v>299</v>
       </c>
       <c r="B295">
-        <v>0.0125</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
       <c r="D295">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E295">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F295">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>563</v>
@@ -19494,25 +19494,25 @@
         <v>300</v>
       </c>
       <c r="B296">
-        <v>0.01234567901234568</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C296">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D296">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="E296">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F296">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>564</v>
@@ -19544,25 +19544,25 @@
         <v>301</v>
       </c>
       <c r="B297">
-        <v>0.01234567901234568</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
       <c r="D297">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E297">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F297">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>565</v>
@@ -19594,25 +19594,25 @@
         <v>302</v>
       </c>
       <c r="B298">
-        <v>0.01219512195121951</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E298">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F298">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>566</v>
@@ -19644,25 +19644,25 @@
         <v>303</v>
       </c>
       <c r="B299">
-        <v>0.01136363636363636</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C299">
         <v>1</v>
       </c>
       <c r="D299">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E299">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F299">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>567</v>
@@ -19694,25 +19694,25 @@
         <v>304</v>
       </c>
       <c r="B300">
-        <v>0.01063829787234043</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
       <c r="D300">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E300">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F300">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>568</v>
@@ -19744,25 +19744,25 @@
         <v>305</v>
       </c>
       <c r="B301">
-        <v>0.01030927835051546</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C301">
         <v>1</v>
       </c>
       <c r="D301">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E301">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F301">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G301" t="b">
         <v>1</v>
       </c>
       <c r="H301">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>569</v>
@@ -19794,25 +19794,25 @@
         <v>306</v>
       </c>
       <c r="B302">
-        <v>0.0101010101010101</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
       <c r="D302">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E302">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F302">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>570</v>
@@ -19844,25 +19844,25 @@
         <v>307</v>
       </c>
       <c r="B303">
-        <v>0.009433962264150943</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
       <c r="D303">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E303">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F303">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>571</v>
@@ -19894,25 +19894,25 @@
         <v>308</v>
       </c>
       <c r="B304">
-        <v>0.009009009009009009</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C304">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D304">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E304">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F304">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H304">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>572</v>
@@ -19944,25 +19944,25 @@
         <v>309</v>
       </c>
       <c r="B305">
-        <v>0.00819672131147541</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
       <c r="D305">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E305">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="F305">
-        <v>0.03000000000000003</v>
+        <v>0.17</v>
       </c>
       <c r="G305" t="b">
         <v>1</v>
       </c>
       <c r="H305">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>573</v>
@@ -19994,25 +19994,25 @@
         <v>310</v>
       </c>
       <c r="B306">
-        <v>0.007936507936507936</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="C306">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D306">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E306">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F306">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H306">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>574</v>
@@ -20044,25 +20044,25 @@
         <v>311</v>
       </c>
       <c r="B307">
-        <v>0.007575757575757576</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
       <c r="D307">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E307">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F307">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G307" t="b">
         <v>1</v>
       </c>
       <c r="H307">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>575</v>
@@ -20094,25 +20094,25 @@
         <v>312</v>
       </c>
       <c r="B308">
-        <v>0.007575757575757576</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="C308">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D308">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E308">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F308">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G308" t="b">
         <v>1</v>
       </c>
       <c r="H308">
-        <v>131</v>
+        <v>290</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>136</v>
@@ -20144,25 +20144,25 @@
         <v>313</v>
       </c>
       <c r="B309">
-        <v>0.007352941176470588</v>
+        <v>0.00663265306122449</v>
       </c>
       <c r="C309">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D309">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="E309">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F309">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G309" t="b">
         <v>1</v>
       </c>
       <c r="H309">
-        <v>135</v>
+        <v>1947</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>576</v>
@@ -20194,13 +20194,13 @@
         <v>314</v>
       </c>
       <c r="B310">
-        <v>0.00684931506849315</v>
+        <v>0.006430868167202572</v>
       </c>
       <c r="C310">
         <v>2</v>
       </c>
       <c r="D310">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E310">
         <v>0.95</v>
@@ -20212,7 +20212,7 @@
         <v>1</v>
       </c>
       <c r="H310">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>577</v>
@@ -20244,25 +20244,25 @@
         <v>315</v>
       </c>
       <c r="B311">
-        <v>0.00663265306122449</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C311">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D311">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="E311">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F311">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G311" t="b">
         <v>1</v>
       </c>
       <c r="H311">
-        <v>1947</v>
+        <v>155</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>578</v>
@@ -20294,25 +20294,25 @@
         <v>316</v>
       </c>
       <c r="B312">
-        <v>0.006430868167202572</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="C312">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D312">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E312">
-        <v>0.95</v>
+        <v>0.77</v>
       </c>
       <c r="F312">
-        <v>0.05000000000000004</v>
+        <v>0.23</v>
       </c>
       <c r="G312" t="b">
         <v>1</v>
       </c>
       <c r="H312">
-        <v>309</v>
+        <v>942</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>579</v>
@@ -20344,25 +20344,25 @@
         <v>317</v>
       </c>
       <c r="B313">
-        <v>0.00641025641025641</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="C313">
         <v>1</v>
       </c>
       <c r="D313">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E313">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F313">
-        <v>0.08999999999999997</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G313" t="b">
         <v>1</v>
       </c>
       <c r="H313">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>580</v>
@@ -20394,25 +20394,25 @@
         <v>318</v>
       </c>
       <c r="B314">
-        <v>0.006329113924050633</v>
+        <v>0.006142506142506142</v>
       </c>
       <c r="C314">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D314">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E314">
-        <v>0.77</v>
+        <v>0.91</v>
       </c>
       <c r="F314">
-        <v>0.23</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G314" t="b">
         <v>1</v>
       </c>
       <c r="H314">
-        <v>942</v>
+        <v>809</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>581</v>
@@ -20444,25 +20444,25 @@
         <v>319</v>
       </c>
       <c r="B315">
-        <v>0.006289308176100629</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C315">
         <v>1</v>
       </c>
       <c r="D315">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="E315">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F315">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H315">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>582</v>
@@ -20494,25 +20494,25 @@
         <v>320</v>
       </c>
       <c r="B316">
-        <v>0.006142506142506142</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="C316">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D316">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E316">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F316">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G316" t="b">
         <v>1</v>
       </c>
       <c r="H316">
-        <v>809</v>
+        <v>169</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>583</v>
@@ -20544,25 +20544,25 @@
         <v>321</v>
       </c>
       <c r="B317">
-        <v>0.006024096385542169</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="C317">
         <v>1</v>
       </c>
       <c r="D317">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E317">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F317">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H317">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>584</v>
@@ -20594,25 +20594,25 @@
         <v>322</v>
       </c>
       <c r="B318">
-        <v>0.005882352941176471</v>
+        <v>0.005016722408026756</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D318">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="E318">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F318">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G318" t="b">
         <v>1</v>
       </c>
       <c r="H318">
-        <v>169</v>
+        <v>595</v>
       </c>
       <c r="J318" s="1" t="s">
         <v>585</v>
@@ -20644,25 +20644,25 @@
         <v>323</v>
       </c>
       <c r="B319">
-        <v>0.005208333333333333</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="C319">
         <v>1</v>
       </c>
       <c r="D319">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E319">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F319">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G319" t="b">
         <v>1</v>
       </c>
       <c r="H319">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>586</v>
@@ -20694,28 +20694,28 @@
         <v>324</v>
       </c>
       <c r="B320">
-        <v>0.005016722408026756</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="C320">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D320">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E320">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F320">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G320" t="b">
         <v>1</v>
       </c>
       <c r="H320">
-        <v>595</v>
+        <v>216</v>
       </c>
       <c r="J320" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K320">
         <v>0.2666666666666667</v>
@@ -20744,28 +20744,28 @@
         <v>325</v>
       </c>
       <c r="B321">
-        <v>0.004854368932038835</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="C321">
         <v>1</v>
       </c>
       <c r="D321">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E321">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="F321">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="G321" t="b">
         <v>1</v>
       </c>
       <c r="H321">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="J321" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K321">
         <v>0.2631578947368421</v>
@@ -20794,25 +20794,25 @@
         <v>326</v>
       </c>
       <c r="B322">
-        <v>0.004608294930875576</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="C322">
         <v>1</v>
       </c>
       <c r="D322">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="E322">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="F322">
-        <v>0.08999999999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G322" t="b">
         <v>1</v>
       </c>
       <c r="H322">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="J322" s="1" t="s">
         <v>587</v>
@@ -20844,28 +20844,28 @@
         <v>327</v>
       </c>
       <c r="B323">
-        <v>0.0045662100456621</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="C323">
         <v>1</v>
       </c>
       <c r="D323">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E323">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F323">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G323" t="b">
         <v>1</v>
       </c>
       <c r="H323">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="J323" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K323">
         <v>0.2616822429906542</v>
@@ -20894,28 +20894,28 @@
         <v>328</v>
       </c>
       <c r="B324">
-        <v>0.004405286343612335</v>
+        <v>0.003735990037359901</v>
       </c>
       <c r="C324">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D324">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="E324">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F324">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G324" t="b">
         <v>1</v>
       </c>
       <c r="H324">
-        <v>226</v>
+        <v>800</v>
       </c>
       <c r="J324" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K324">
         <v>0.2608695652173913</v>
@@ -20944,25 +20944,25 @@
         <v>329</v>
       </c>
       <c r="B325">
-        <v>0.00425531914893617</v>
+        <v>0.003448275862068965</v>
       </c>
       <c r="C325">
         <v>1</v>
       </c>
       <c r="D325">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E325">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F325">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G325" t="b">
         <v>1</v>
       </c>
       <c r="H325">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="J325" s="1" t="s">
         <v>588</v>
@@ -20994,13 +20994,13 @@
         <v>330</v>
       </c>
       <c r="B326">
-        <v>0.003735990037359901</v>
+        <v>0.003179088661250442</v>
       </c>
       <c r="C326">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D326">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="E326">
         <v>0.97</v>
@@ -21012,10 +21012,10 @@
         <v>1</v>
       </c>
       <c r="H326">
-        <v>800</v>
+        <v>2822</v>
       </c>
       <c r="J326" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K326">
         <v>0.2586206896551724</v>
@@ -21044,25 +21044,25 @@
         <v>331</v>
       </c>
       <c r="B327">
-        <v>0.003448275862068965</v>
+        <v>0.002865329512893983</v>
       </c>
       <c r="C327">
         <v>1</v>
       </c>
       <c r="D327">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E327">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F327">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G327" t="b">
         <v>1</v>
       </c>
       <c r="H327">
-        <v>289</v>
+        <v>348</v>
       </c>
       <c r="J327" s="1" t="s">
         <v>589</v>
@@ -21094,25 +21094,25 @@
         <v>332</v>
       </c>
       <c r="B328">
-        <v>0.003179088661250442</v>
+        <v>0.002793296089385475</v>
       </c>
       <c r="C328">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D328">
-        <v>285</v>
+        <v>59</v>
       </c>
       <c r="E328">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F328">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G328" t="b">
         <v>1</v>
       </c>
       <c r="H328">
-        <v>2822</v>
+        <v>357</v>
       </c>
       <c r="J328" s="1" t="s">
         <v>590</v>
@@ -21144,25 +21144,25 @@
         <v>333</v>
       </c>
       <c r="B329">
-        <v>0.002865329512893983</v>
+        <v>0.002717391304347826</v>
       </c>
       <c r="C329">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D329">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E329">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F329">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G329" t="b">
         <v>1</v>
       </c>
       <c r="H329">
-        <v>348</v>
+        <v>1101</v>
       </c>
       <c r="J329" s="1" t="s">
         <v>591</v>
@@ -21194,25 +21194,25 @@
         <v>334</v>
       </c>
       <c r="B330">
-        <v>0.002793296089385475</v>
+        <v>0.002621231979030144</v>
       </c>
       <c r="C330">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D330">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="E330">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F330">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G330" t="b">
         <v>1</v>
       </c>
       <c r="H330">
-        <v>357</v>
+        <v>3044</v>
       </c>
       <c r="J330" s="1" t="s">
         <v>592</v>
@@ -21244,25 +21244,25 @@
         <v>335</v>
       </c>
       <c r="B331">
-        <v>0.002717391304347826</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="C331">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D331">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E331">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F331">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G331" t="b">
         <v>1</v>
       </c>
       <c r="H331">
-        <v>1101</v>
+        <v>812</v>
       </c>
       <c r="J331" s="1" t="s">
         <v>593</v>
@@ -21294,25 +21294,25 @@
         <v>336</v>
       </c>
       <c r="B332">
-        <v>0.002621231979030144</v>
+        <v>0.001890359168241966</v>
       </c>
       <c r="C332">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D332">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="E332">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F332">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G332" t="b">
         <v>1</v>
       </c>
       <c r="H332">
-        <v>3044</v>
+        <v>528</v>
       </c>
       <c r="J332" s="1" t="s">
         <v>594</v>
@@ -21344,25 +21344,25 @@
         <v>337</v>
       </c>
       <c r="B333">
-        <v>0.002457002457002457</v>
+        <v>0.001879699248120301</v>
       </c>
       <c r="C333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D333">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E333">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F333">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G333" t="b">
         <v>1</v>
       </c>
       <c r="H333">
-        <v>812</v>
+        <v>531</v>
       </c>
       <c r="J333" s="1" t="s">
         <v>595</v>
@@ -21390,30 +21390,6 @@
       </c>
     </row>
     <row r="334" spans="1:17">
-      <c r="A334" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B334">
-        <v>0.001890359168241966</v>
-      </c>
-      <c r="C334">
-        <v>1</v>
-      </c>
-      <c r="D334">
-        <v>17</v>
-      </c>
-      <c r="E334">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F334">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G334" t="b">
-        <v>1</v>
-      </c>
-      <c r="H334">
-        <v>528</v>
-      </c>
       <c r="J334" s="1" t="s">
         <v>596</v>
       </c>
@@ -21440,30 +21416,6 @@
       </c>
     </row>
     <row r="335" spans="1:17">
-      <c r="A335" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B335">
-        <v>0.001879699248120301</v>
-      </c>
-      <c r="C335">
-        <v>1</v>
-      </c>
-      <c r="D335">
-        <v>36</v>
-      </c>
-      <c r="E335">
-        <v>0.97</v>
-      </c>
-      <c r="F335">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G335" t="b">
-        <v>1</v>
-      </c>
-      <c r="H335">
-        <v>531</v>
-      </c>
       <c r="J335" s="1" t="s">
         <v>597</v>
       </c>
@@ -22063,7 +22015,7 @@
     </row>
     <row r="358" spans="10:17">
       <c r="J358" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K358">
         <v>0.25</v>
@@ -22271,7 +22223,7 @@
     </row>
     <row r="366" spans="10:17">
       <c r="J366" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K366">
         <v>0.2380952380952381</v>
@@ -22349,7 +22301,7 @@
     </row>
     <row r="369" spans="10:17">
       <c r="J369" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K369">
         <v>0.2361111111111111</v>
@@ -22375,7 +22327,7 @@
     </row>
     <row r="370" spans="10:17">
       <c r="J370" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K370">
         <v>0.2341772151898734</v>
@@ -22427,7 +22379,7 @@
     </row>
     <row r="372" spans="10:17">
       <c r="J372" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K372">
         <v>0.2307692307692308</v>
@@ -22505,7 +22457,7 @@
     </row>
     <row r="375" spans="10:17">
       <c r="J375" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K375">
         <v>0.2307692307692308</v>
@@ -22713,7 +22665,7 @@
     </row>
     <row r="383" spans="10:17">
       <c r="J383" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K383">
         <v>0.2270531400966184</v>
@@ -23259,7 +23211,7 @@
     </row>
     <row r="404" spans="10:17">
       <c r="J404" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K404">
         <v>0.2203389830508475</v>
@@ -23363,7 +23315,7 @@
     </row>
     <row r="408" spans="10:17">
       <c r="J408" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K408">
         <v>0.2142857142857143</v>
@@ -23467,7 +23419,7 @@
     </row>
     <row r="412" spans="10:17">
       <c r="J412" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K412">
         <v>0.2142857142857143</v>
@@ -23545,7 +23497,7 @@
     </row>
     <row r="415" spans="10:17">
       <c r="J415" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K415">
         <v>0.2121212121212121</v>
@@ -24143,7 +24095,7 @@
     </row>
     <row r="438" spans="10:17">
       <c r="J438" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K438">
         <v>0.2</v>
@@ -24403,7 +24355,7 @@
     </row>
     <row r="448" spans="10:17">
       <c r="J448" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K448">
         <v>0.1847133757961783</v>
@@ -24637,7 +24589,7 @@
     </row>
     <row r="457" spans="10:17">
       <c r="J457" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K457">
         <v>0.1818181818181818</v>
@@ -24871,7 +24823,7 @@
     </row>
     <row r="466" spans="10:17">
       <c r="J466" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K466">
         <v>0.1764705882352941</v>
@@ -24949,7 +24901,7 @@
     </row>
     <row r="469" spans="10:17">
       <c r="J469" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K469">
         <v>0.1739130434782609</v>
@@ -25001,7 +24953,7 @@
     </row>
     <row r="471" spans="10:17">
       <c r="J471" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K471">
         <v>0.1702127659574468</v>
@@ -25027,7 +24979,7 @@
     </row>
     <row r="472" spans="10:17">
       <c r="J472" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K472">
         <v>0.1690140845070423</v>
@@ -25105,7 +25057,7 @@
     </row>
     <row r="475" spans="10:17">
       <c r="J475" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K475">
         <v>0.1666666666666667</v>
@@ -25235,7 +25187,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K480">
         <v>0.1666666666666667</v>
@@ -25547,7 +25499,7 @@
     </row>
     <row r="492" spans="10:17">
       <c r="J492" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K492">
         <v>0.1666666666666667</v>
@@ -25755,7 +25707,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K500">
         <v>0.1666666666666667</v>
@@ -26821,7 +26773,7 @@
     </row>
     <row r="541" spans="10:17">
       <c r="J541" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K541">
         <v>0.1639344262295082</v>
@@ -26873,7 +26825,7 @@
     </row>
     <row r="543" spans="10:17">
       <c r="J543" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K543">
         <v>0.1636363636363636</v>
@@ -27003,7 +26955,7 @@
     </row>
     <row r="548" spans="10:17">
       <c r="J548" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K548">
         <v>0.1578947368421053</v>
@@ -27159,7 +27111,7 @@
     </row>
     <row r="554" spans="10:17">
       <c r="J554" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K554">
         <v>0.1551724137931035</v>
@@ -27211,7 +27163,7 @@
     </row>
     <row r="556" spans="10:17">
       <c r="J556" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K556">
         <v>0.1538461538461539</v>
@@ -27367,7 +27319,7 @@
     </row>
     <row r="562" spans="10:17">
       <c r="J562" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K562">
         <v>0.1538461538461539</v>
@@ -27471,7 +27423,7 @@
     </row>
     <row r="566" spans="10:17">
       <c r="J566" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K566">
         <v>0.15</v>
@@ -28277,7 +28229,7 @@
     </row>
     <row r="597" spans="10:17">
       <c r="J597" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K597">
         <v>0.1428571428571428</v>
@@ -29369,7 +29321,7 @@
     </row>
     <row r="639" spans="10:17">
       <c r="J639" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K639">
         <v>0.1397590361445783</v>
@@ -29447,7 +29399,7 @@
     </row>
     <row r="642" spans="10:17">
       <c r="J642" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K642">
         <v>0.1382978723404255</v>
@@ -29525,7 +29477,7 @@
     </row>
     <row r="645" spans="10:17">
       <c r="J645" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K645">
         <v>0.1363636363636364</v>
@@ -29759,7 +29711,7 @@
     </row>
     <row r="654" spans="10:17">
       <c r="J654" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K654">
         <v>0.1333333333333333</v>
@@ -29941,7 +29893,7 @@
     </row>
     <row r="661" spans="10:17">
       <c r="J661" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K661">
         <v>0.1313559322033898</v>
@@ -30149,7 +30101,7 @@
     </row>
     <row r="669" spans="10:17">
       <c r="J669" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K669">
         <v>0.1287878787878788</v>
@@ -30279,7 +30231,7 @@
     </row>
     <row r="674" spans="10:17">
       <c r="J674" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K674">
         <v>0.125</v>
@@ -30903,7 +30855,7 @@
     </row>
     <row r="698" spans="10:17">
       <c r="J698" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K698">
         <v>0.125</v>
@@ -31761,7 +31713,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K731">
         <v>0.1212121212121212</v>
@@ -32151,7 +32103,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K746">
         <v>0.1176470588235294</v>
@@ -32281,7 +32233,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K751">
         <v>0.1171171171171171</v>
@@ -32307,7 +32259,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K752">
         <v>0.1166666666666667</v>
@@ -32723,7 +32675,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K768">
         <v>0.1111111111111111</v>
@@ -33893,7 +33845,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K813">
         <v>0.1101694915254237</v>
@@ -33919,7 +33871,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K814">
         <v>0.1095100864553314</v>
@@ -33997,7 +33949,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K817">
         <v>0.1076923076923077</v>
@@ -34023,7 +33975,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K818">
         <v>0.1074766355140187</v>
@@ -34153,7 +34105,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K823">
         <v>0.1052631578947368</v>
@@ -34309,7 +34261,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K829">
         <v>0.1052631578947368</v>
@@ -34491,7 +34443,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K836">
         <v>0.102803738317757</v>
@@ -34517,7 +34469,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K837">
         <v>0.1027397260273973</v>
@@ -34595,7 +34547,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K840">
         <v>0.1021324354657688</v>
@@ -34725,7 +34677,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K845">
         <v>0.1</v>
@@ -35635,7 +35587,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K880">
         <v>0.09677419354838709</v>
@@ -35661,7 +35613,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K881">
         <v>0.09677419354838709</v>
@@ -35739,7 +35691,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K884">
         <v>0.096</v>
@@ -36077,7 +36029,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K897">
         <v>0.09333333333333334</v>
@@ -36467,7 +36419,7 @@
     </row>
     <row r="912" spans="10:17">
       <c r="J912" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K912">
         <v>0.09090909090909091</v>
@@ -36493,7 +36445,7 @@
     </row>
     <row r="913" spans="10:17">
       <c r="J913" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K913">
         <v>0.09090909090909091</v>
@@ -36935,7 +36887,7 @@
     </row>
     <row r="930" spans="10:17">
       <c r="J930" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K930">
         <v>0.08908973531310523</v>
@@ -37039,7 +36991,7 @@
     </row>
     <row r="934" spans="10:17">
       <c r="J934" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K934">
         <v>0.08771929824561403</v>
@@ -37195,7 +37147,7 @@
     </row>
     <row r="940" spans="10:17">
       <c r="J940" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K940">
         <v>0.08591549295774648</v>
@@ -37715,7 +37667,7 @@
     </row>
     <row r="960" spans="10:17">
       <c r="J960" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K960">
         <v>0.08333333333333333</v>
@@ -37923,7 +37875,7 @@
     </row>
     <row r="968" spans="10:17">
       <c r="J968" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K968">
         <v>0.08333333333333333</v>
@@ -38027,7 +37979,7 @@
     </row>
     <row r="972" spans="10:17">
       <c r="J972" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K972">
         <v>0.08163265306122448</v>
@@ -38053,7 +38005,7 @@
     </row>
     <row r="973" spans="10:17">
       <c r="J973" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K973">
         <v>0.08152173913043478</v>
@@ -38131,7 +38083,7 @@
     </row>
     <row r="976" spans="10:17">
       <c r="J976" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K976">
         <v>0.08064516129032258</v>
@@ -38157,7 +38109,7 @@
     </row>
     <row r="977" spans="10:17">
       <c r="J977" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K977">
         <v>0.080370942812983</v>
@@ -38339,7 +38291,7 @@
     </row>
     <row r="984" spans="10:17">
       <c r="J984" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K984">
         <v>0.07954545454545454</v>
@@ -38495,7 +38447,7 @@
     </row>
     <row r="990" spans="10:17">
       <c r="J990" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K990">
         <v>0.07692307692307693</v>
@@ -38781,7 +38733,7 @@
     </row>
     <row r="1001" spans="10:17">
       <c r="J1001" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K1001">
         <v>0.07692307692307693</v>
@@ -38833,7 +38785,7 @@
     </row>
     <row r="1003" spans="10:17">
       <c r="J1003" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K1003">
         <v>0.07692307692307693</v>
@@ -38885,7 +38837,7 @@
     </row>
     <row r="1005" spans="10:17">
       <c r="J1005" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K1005">
         <v>0.07692307692307693</v>
@@ -38963,7 +38915,7 @@
     </row>
     <row r="1008" spans="10:17">
       <c r="J1008" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K1008">
         <v>0.07692307692307693</v>
@@ -39197,7 +39149,7 @@
     </row>
     <row r="1017" spans="10:17">
       <c r="J1017" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K1017">
         <v>0.07246376811594203</v>
@@ -39509,7 +39461,7 @@
     </row>
     <row r="1029" spans="10:17">
       <c r="J1029" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K1029">
         <v>0.07142857142857142</v>
@@ -39795,7 +39747,7 @@
     </row>
     <row r="1040" spans="10:17">
       <c r="J1040" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K1040">
         <v>0.06896551724137931</v>
@@ -39925,7 +39877,7 @@
     </row>
     <row r="1045" spans="10:17">
       <c r="J1045" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K1045">
         <v>0.06818181818181818</v>
@@ -40133,7 +40085,7 @@
     </row>
     <row r="1053" spans="10:17">
       <c r="J1053" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K1053">
         <v>0.06666666666666667</v>
@@ -40159,7 +40111,7 @@
     </row>
     <row r="1054" spans="10:17">
       <c r="J1054" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K1054">
         <v>0.06666666666666667</v>
@@ -40419,7 +40371,7 @@
     </row>
     <row r="1064" spans="10:17">
       <c r="J1064" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K1064">
         <v>0.06542056074766354</v>
@@ -40887,7 +40839,7 @@
     </row>
     <row r="1082" spans="10:17">
       <c r="J1082" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K1082">
         <v>0.0625</v>
@@ -41017,7 +40969,7 @@
     </row>
     <row r="1087" spans="10:17">
       <c r="J1087" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K1087">
         <v>0.0625</v>
@@ -41199,7 +41151,7 @@
     </row>
     <row r="1094" spans="10:17">
       <c r="J1094" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K1094">
         <v>0.06183745583038869</v>
@@ -41225,7 +41177,7 @@
     </row>
     <row r="1095" spans="10:17">
       <c r="J1095" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K1095">
         <v>0.06148491879350348</v>
@@ -41277,7 +41229,7 @@
     </row>
     <row r="1097" spans="10:17">
       <c r="J1097" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K1097">
         <v>0.06060606060606061</v>
@@ -41329,7 +41281,7 @@
     </row>
     <row r="1099" spans="10:17">
       <c r="J1099" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K1099">
         <v>0.06060606060606061</v>
@@ -41537,7 +41489,7 @@
     </row>
     <row r="1107" spans="10:17">
       <c r="J1107" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K1107">
         <v>0.05882352941176471</v>
@@ -41901,7 +41853,7 @@
     </row>
     <row r="1121" spans="10:17">
       <c r="J1121" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K1121">
         <v>0.05882352941176471</v>
@@ -41953,7 +41905,7 @@
     </row>
     <row r="1123" spans="10:17">
       <c r="J1123" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K1123">
         <v>0.05714285714285714</v>
@@ -42057,7 +42009,7 @@
     </row>
     <row r="1127" spans="10:17">
       <c r="J1127" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K1127">
         <v>0.05555555555555555</v>
@@ -42499,7 +42451,7 @@
     </row>
     <row r="1144" spans="10:17">
       <c r="J1144" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K1144">
         <v>0.05263157894736842</v>
@@ -42941,7 +42893,7 @@
     </row>
     <row r="1161" spans="10:17">
       <c r="J1161" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K1161">
         <v>0.05102040816326531</v>
@@ -42993,7 +42945,7 @@
     </row>
     <row r="1163" spans="10:17">
       <c r="J1163" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K1163">
         <v>0.0505050505050505</v>
@@ -43305,7 +43257,7 @@
     </row>
     <row r="1175" spans="10:17">
       <c r="J1175" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K1175">
         <v>0.04922279792746114</v>
@@ -43539,7 +43491,7 @@
     </row>
     <row r="1184" spans="10:17">
       <c r="J1184" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K1184">
         <v>0.04666457876605073</v>
@@ -43669,7 +43621,7 @@
     </row>
     <row r="1189" spans="10:17">
       <c r="J1189" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K1189">
         <v>0.04545454545454546</v>
@@ -43695,7 +43647,7 @@
     </row>
     <row r="1190" spans="10:17">
       <c r="J1190" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K1190">
         <v>0.04545454545454546</v>
@@ -43955,7 +43907,7 @@
     </row>
     <row r="1200" spans="10:17">
       <c r="J1200" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K1200">
         <v>0.04424778761061947</v>
@@ -44007,7 +43959,7 @@
     </row>
     <row r="1202" spans="10:17">
       <c r="J1202" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K1202">
         <v>0.04395604395604396</v>
@@ -44215,7 +44167,7 @@
     </row>
     <row r="1210" spans="10:17">
       <c r="J1210" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K1210">
         <v>0.04347826086956522</v>
@@ -44241,7 +44193,7 @@
     </row>
     <row r="1211" spans="10:17">
       <c r="J1211" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K1211">
         <v>0.04166666666666666</v>
@@ -44293,7 +44245,7 @@
     </row>
     <row r="1213" spans="10:17">
       <c r="J1213" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K1213">
         <v>0.04166666666666666</v>
@@ -44787,7 +44739,7 @@
     </row>
     <row r="1232" spans="10:17">
       <c r="J1232" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K1232">
         <v>0.03846153846153846</v>
@@ -44969,7 +44921,7 @@
     </row>
     <row r="1239" spans="10:17">
       <c r="J1239" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K1239">
         <v>0.03703703703703703</v>
@@ -45073,7 +45025,7 @@
     </row>
     <row r="1243" spans="10:17">
       <c r="J1243" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K1243">
         <v>0.03676470588235294</v>
@@ -45723,7 +45675,7 @@
     </row>
     <row r="1268" spans="10:17">
       <c r="J1268" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K1268">
         <v>0.03076923076923077</v>
@@ -45775,7 +45727,7 @@
     </row>
     <row r="1270" spans="10:17">
       <c r="J1270" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K1270">
         <v>0.03064066852367688</v>
@@ -45827,7 +45779,7 @@
     </row>
     <row r="1272" spans="10:17">
       <c r="J1272" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K1272">
         <v>0.0303030303030303</v>
@@ -45983,7 +45935,7 @@
     </row>
     <row r="1278" spans="10:17">
       <c r="J1278" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K1278">
         <v>0.02941176470588235</v>
@@ -46347,7 +46299,7 @@
     </row>
     <row r="1292" spans="10:17">
       <c r="J1292" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K1292">
         <v>0.02678571428571428</v>
@@ -46555,7 +46507,7 @@
     </row>
     <row r="1300" spans="10:17">
       <c r="J1300" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K1300">
         <v>0.02469135802469136</v>
@@ -46945,7 +46897,7 @@
     </row>
     <row r="1315" spans="10:17">
       <c r="J1315" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K1315">
         <v>0.02079002079002079</v>
@@ -47075,7 +47027,7 @@
     </row>
     <row r="1320" spans="10:17">
       <c r="J1320" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K1320">
         <v>0.01886792452830189</v>
@@ -47127,7 +47079,7 @@
     </row>
     <row r="1322" spans="10:17">
       <c r="J1322" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K1322">
         <v>0.01724137931034483</v>
@@ -47283,7 +47235,7 @@
     </row>
     <row r="1328" spans="10:17">
       <c r="J1328" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K1328">
         <v>0.01234567901234568</v>
@@ -47361,7 +47313,7 @@
     </row>
     <row r="1331" spans="10:17">
       <c r="J1331" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K1331">
         <v>0.01027397260273973</v>
@@ -47569,7 +47521,7 @@
     </row>
     <row r="1339" spans="10:17">
       <c r="J1339" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K1339">
         <v>0.00425531914893617</v>
